--- a/data/trans_orig/P17A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>335108</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>307946</v>
+        <v>307336</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365269</v>
+        <v>367548</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3250986767771192</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2987481686665835</v>
+        <v>0.2981564105851504</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3543582445298568</v>
+        <v>0.3565699409729218</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>519</v>
@@ -765,19 +765,19 @@
         <v>528071</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>493757</v>
+        <v>493182</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>564786</v>
+        <v>563684</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4015400271757805</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3754486640460377</v>
+        <v>0.3750107820211457</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4294578920075671</v>
+        <v>0.4286203476110433</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>864</v>
@@ -786,19 +786,19 @@
         <v>863178</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>821462</v>
+        <v>816754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>912924</v>
+        <v>912512</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.367951707405988</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3501689124531975</v>
+        <v>0.3481623137510667</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3891569243255706</v>
+        <v>0.3889815523556838</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>695681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>665520</v>
+        <v>663241</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>722843</v>
+        <v>723453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6749013232228809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6456417554701434</v>
+        <v>0.6434300590270783</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7012518313334165</v>
+        <v>0.7018435894148498</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>772</v>
@@ -836,19 +836,19 @@
         <v>787042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>750327</v>
+        <v>751429</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>821356</v>
+        <v>821931</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5984599728242195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5705421079924329</v>
+        <v>0.5713796523889567</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6245513359539623</v>
+        <v>0.6249892179788544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1464</v>
@@ -857,19 +857,19 @@
         <v>1482723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1432977</v>
+        <v>1433389</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1524439</v>
+        <v>1529147</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.632048292594012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6108430756744294</v>
+        <v>0.6110184476443162</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6498310875468025</v>
+        <v>0.6518376862489333</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>252425</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>222735</v>
+        <v>224501</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>283304</v>
+        <v>281641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1492159102366266</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1316649240105844</v>
+        <v>0.1327091565490452</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.167469474983759</v>
+        <v>0.1664861289260193</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>392</v>
@@ -982,19 +982,19 @@
         <v>404152</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>366601</v>
+        <v>369410</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>436010</v>
+        <v>438660</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2548790892179161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2311978365013338</v>
+        <v>0.2329690858781193</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2749703075546978</v>
+        <v>0.2766415584260216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>642</v>
@@ -1003,19 +1003,19 @@
         <v>656577</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>614855</v>
+        <v>612798</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>704338</v>
+        <v>703414</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2003384828259859</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1876079026031756</v>
+        <v>0.186980311086379</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2149116937803195</v>
+        <v>0.2146297358371144</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1439252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1408373</v>
+        <v>1410036</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1468942</v>
+        <v>1467176</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8507840897633734</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8325305250162408</v>
+        <v>0.8335138710739807</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8683350759894155</v>
+        <v>0.8672908434509544</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1160</v>
@@ -1053,19 +1053,19 @@
         <v>1181509</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1149651</v>
+        <v>1147001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1219060</v>
+        <v>1216251</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7451209107820839</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7250296924453021</v>
+        <v>0.7233584415739783</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7688021634986663</v>
+        <v>0.7670309141218806</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2557</v>
@@ -1074,19 +1074,19 @@
         <v>2620761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2573000</v>
+        <v>2573924</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2662483</v>
+        <v>2664540</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7996615171740141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7850883062196805</v>
+        <v>0.7853702641628856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8123920973968245</v>
+        <v>0.813019688913621</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>71769</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56515</v>
+        <v>55659</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90863</v>
+        <v>90081</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.130155009349425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1024925424242433</v>
+        <v>0.100940024650661</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1647827254566785</v>
+        <v>0.1633650752229311</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -1199,19 +1199,19 @@
         <v>116148</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97680</v>
+        <v>95959</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135088</v>
+        <v>135700</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2437968854349141</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2050336025792987</v>
+        <v>0.2014195462340156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.283553691722904</v>
+        <v>0.284837385210597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>177</v>
@@ -1220,19 +1220,19 @@
         <v>187916</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>162229</v>
+        <v>162349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>212758</v>
+        <v>213720</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1828299278243107</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1578383577924684</v>
+        <v>0.157954487589886</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2069992256991351</v>
+        <v>0.2079354551719398</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>479639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>460545</v>
+        <v>461327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>494893</v>
+        <v>495749</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.869844990650575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8352172745433217</v>
+        <v>0.8366349247770689</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8975074575757568</v>
+        <v>0.8990599753493391</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>341</v>
@@ -1270,19 +1270,19 @@
         <v>360264</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>341324</v>
+        <v>340712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>378732</v>
+        <v>380453</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7562031145650859</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7164463082770959</v>
+        <v>0.7151626147894031</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7949663974207013</v>
+        <v>0.7985804537659845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>802</v>
@@ -1291,19 +1291,19 @@
         <v>839904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>815062</v>
+        <v>814100</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>865591</v>
+        <v>865471</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8171700721756893</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7930007743008649</v>
+        <v>0.7920645448280603</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8421616422075316</v>
+        <v>0.8420455124101139</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>659302</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>618712</v>
+        <v>614801</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>705587</v>
+        <v>708441</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2013827458166282</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.188984596870275</v>
+        <v>0.1877899669202657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.215520441007571</v>
+        <v>0.2163922453527092</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1022</v>
@@ -1416,19 +1416,19 @@
         <v>1048370</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>997725</v>
+        <v>992814</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1107451</v>
+        <v>1102079</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3104271149634787</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2954308415017589</v>
+        <v>0.2939767912264216</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.327921351776446</v>
+        <v>0.3263306962826131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1683</v>
@@ -1437,19 +1437,19 @@
         <v>1707672</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1638983</v>
+        <v>1641420</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1782516</v>
+        <v>1781264</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2567518236966544</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2464243013997297</v>
+        <v>0.2467907261342278</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2680049051078973</v>
+        <v>0.2678165261359747</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2614572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2568287</v>
+        <v>2565433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2655162</v>
+        <v>2659073</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7986172541833718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7844795589924289</v>
+        <v>0.7836077546472908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.811015403129725</v>
+        <v>0.8122100330797343</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2273</v>
@@ -1487,19 +1487,19 @@
         <v>2328815</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2269734</v>
+        <v>2275106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2379460</v>
+        <v>2384371</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6895728850365213</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6720786482235538</v>
+        <v>0.6736693037173868</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7045691584982411</v>
+        <v>0.7060232087735783</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4823</v>
@@ -1508,19 +1508,19 @@
         <v>4943387</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4868543</v>
+        <v>4869795</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5012076</v>
+        <v>5009639</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7432481763033456</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7319950948921027</v>
+        <v>0.7321834738640252</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7535756986002703</v>
+        <v>0.7532092738657721</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>344404</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>313587</v>
+        <v>310762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>374700</v>
+        <v>375268</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3541512499906564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3224617148594457</v>
+        <v>0.3195571092635278</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3853042471082515</v>
+        <v>0.3858883118777141</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>519</v>
@@ -1872,19 +1872,19 @@
         <v>550397</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>517424</v>
+        <v>514459</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>586950</v>
+        <v>587822</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4120408834259187</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3873560520239711</v>
+        <v>0.3851363146702188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4394055156561921</v>
+        <v>0.4400577665945883</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>835</v>
@@ -1893,19 +1893,19 @@
         <v>894801</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>846871</v>
+        <v>851405</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>944289</v>
+        <v>947178</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3876517852040364</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3668870828872311</v>
+        <v>0.3688514590371218</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4090909455807863</v>
+        <v>0.410342517378075</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>628074</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>597778</v>
+        <v>597210</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>658891</v>
+        <v>661716</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6458487500093436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6146957528917483</v>
+        <v>0.6141116881222859</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6775382851405544</v>
+        <v>0.6804428907364721</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>726</v>
@@ -1943,19 +1943,19 @@
         <v>785386</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>748833</v>
+        <v>747961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>818359</v>
+        <v>821324</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5879591165740813</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.560594484343808</v>
+        <v>0.5599422334054116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6126439479760291</v>
+        <v>0.6148636853297811</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1316</v>
@@ -1964,19 +1964,19 @@
         <v>1413460</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1363972</v>
+        <v>1361083</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1461390</v>
+        <v>1456856</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6123482147959637</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5909090544192136</v>
+        <v>0.5896574826219249</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6331129171127687</v>
+        <v>0.6311485409628781</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>358771</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>324875</v>
+        <v>325740</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>395791</v>
+        <v>395529</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1834159421618248</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1660870059799746</v>
+        <v>0.1665295013190052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2023420106350848</v>
+        <v>0.2022080905685085</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>462</v>
@@ -2089,19 +2089,19 @@
         <v>494416</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>453803</v>
+        <v>455989</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>532178</v>
+        <v>532300</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2825728206268722</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2593611265074718</v>
+        <v>0.2606106899656976</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3041547772075088</v>
+        <v>0.3042245336525069</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>796</v>
@@ -2110,19 +2110,19 @@
         <v>853187</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>796134</v>
+        <v>796635</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>901611</v>
+        <v>908451</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2302335933586039</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2148377802188058</v>
+        <v>0.2149729654804</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2433006838989738</v>
+        <v>0.2451466986420825</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1597280</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1560260</v>
+        <v>1560522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1631176</v>
+        <v>1630311</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8165840578381751</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7976579893649152</v>
+        <v>0.7977919094314916</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8339129940200254</v>
+        <v>0.8334704986809949</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1166</v>
@@ -2160,19 +2160,19 @@
         <v>1255279</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1217517</v>
+        <v>1217395</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1295892</v>
+        <v>1293706</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7174271793731278</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6958452227924914</v>
+        <v>0.6957754663474931</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7406388734925287</v>
+        <v>0.7393893100343025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2681</v>
@@ -2181,19 +2181,19 @@
         <v>2852559</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2804135</v>
+        <v>2797295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2909612</v>
+        <v>2909111</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7697664066413961</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7566993161010263</v>
+        <v>0.7548533013579175</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7851622197811945</v>
+        <v>0.7850270345196001</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>75943</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60410</v>
+        <v>59714</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96673</v>
+        <v>94738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1590967672373933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1265563933459151</v>
+        <v>0.1250985915060981</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2025250702183088</v>
+        <v>0.19847120891551</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -2306,19 +2306,19 @@
         <v>109701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90751</v>
+        <v>89571</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128272</v>
+        <v>130994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.239689347496093</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1982835380075954</v>
+        <v>0.1957052073144582</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2802647797335402</v>
+        <v>0.2862120185840297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -2327,19 +2327,19 @@
         <v>185644</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159408</v>
+        <v>162030</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>213989</v>
+        <v>215045</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1985459228545305</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1704870030227515</v>
+        <v>0.1732913141847852</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.228861174758208</v>
+        <v>0.2299897911542663</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>401394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>380664</v>
+        <v>382599</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>416927</v>
+        <v>417623</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8409032327626067</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7974749297816912</v>
+        <v>0.8015287910844898</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8734436066540849</v>
+        <v>0.8749014084939019</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>317</v>
@@ -2377,19 +2377,19 @@
         <v>347980</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329409</v>
+        <v>326687</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>366930</v>
+        <v>368110</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7603106525039071</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7197352202664598</v>
+        <v>0.7137879814159706</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8017164619924045</v>
+        <v>0.8042947926855418</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>686</v>
@@ -2398,19 +2398,19 @@
         <v>749374</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>721029</v>
+        <v>719973</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>775610</v>
+        <v>772988</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8014540771454695</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7711388252417917</v>
+        <v>0.7700102088457333</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8295129969772483</v>
+        <v>0.8267086858152147</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>779118</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>730275</v>
+        <v>726521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>832712</v>
+        <v>834957</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.22875769681762</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2144169767971119</v>
+        <v>0.2133146049702841</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.244493500738209</v>
+        <v>0.2451526773680049</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1075</v>
@@ -2523,19 +2523,19 @@
         <v>1154515</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1101958</v>
+        <v>1099307</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1213282</v>
+        <v>1213068</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3258433378150163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.311009909165582</v>
+        <v>0.3102618993548012</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3424293669472241</v>
+        <v>0.3423689971415269</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1791</v>
@@ -2544,19 +2544,19 @@
         <v>1933633</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1862883</v>
+        <v>1861928</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2016185</v>
+        <v>2007677</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2782595841614236</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2680783235876475</v>
+        <v>0.2679409289205303</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2901392300780936</v>
+        <v>0.2889149560131596</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2626748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2573154</v>
+        <v>2570909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2675591</v>
+        <v>2679345</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7712423031823801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7555064992617908</v>
+        <v>0.7548473226319951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.785583023202888</v>
+        <v>0.7866853950297159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2209</v>
@@ -2594,19 +2594,19 @@
         <v>2388644</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2329877</v>
+        <v>2330091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2441201</v>
+        <v>2443852</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6741566621849837</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6575706330527757</v>
+        <v>0.6576310028584728</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6889900908344179</v>
+        <v>0.6897381006451987</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4683</v>
@@ -2615,19 +2615,19 @@
         <v>5015392</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4932840</v>
+        <v>4941348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5086142</v>
+        <v>5087097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7217404158385764</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7098607699219065</v>
+        <v>0.7110850439868407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7319216764123525</v>
+        <v>0.7320590710794699</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>261065</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>234809</v>
+        <v>235122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>285928</v>
+        <v>288594</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3460809734908322</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3112746647229785</v>
+        <v>0.311689444060436</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3790398297040799</v>
+        <v>0.3825750311641031</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>376</v>
@@ -2979,19 +2979,19 @@
         <v>421232</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>390336</v>
+        <v>385648</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>454396</v>
+        <v>450879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4234938075670904</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3924311840591834</v>
+        <v>0.3877182387304862</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4568350250022344</v>
+        <v>0.4532999802620258</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>641</v>
@@ -3000,19 +3000,19 @@
         <v>682298</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>639508</v>
+        <v>642147</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>720193</v>
+        <v>727338</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3901056486880524</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3656405298154765</v>
+        <v>0.3671494105990383</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4117723897500413</v>
+        <v>0.4158575711372241</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>493282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>468419</v>
+        <v>465753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>519538</v>
+        <v>519225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6539190265091678</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6209601702959201</v>
+        <v>0.6174249688358967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6887253352770215</v>
+        <v>0.6883105559395639</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>516</v>
@@ -3050,19 +3050,19 @@
         <v>573428</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>540264</v>
+        <v>543781</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>604324</v>
+        <v>609012</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5765061924329097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5431649749977656</v>
+        <v>0.5467000197379742</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6075688159408166</v>
+        <v>0.6122817612695138</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1013</v>
@@ -3071,19 +3071,19 @@
         <v>1066709</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1028814</v>
+        <v>1021669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1109499</v>
+        <v>1106860</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6098943513119476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5882276102499585</v>
+        <v>0.5841424288627759</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6343594701845235</v>
+        <v>0.6328505894009617</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>468581</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>428111</v>
+        <v>430646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>506920</v>
+        <v>505712</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2256713496846288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2061811505020101</v>
+        <v>0.207401719540084</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2441356950676661</v>
+        <v>0.2435541634204399</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>563</v>
@@ -3196,19 +3196,19 @@
         <v>596181</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>553313</v>
+        <v>551985</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>635620</v>
+        <v>635279</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2998444285252192</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2782846434513613</v>
+        <v>0.2776166571788894</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3196799837889449</v>
+        <v>0.319508580187006</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1000</v>
@@ -3217,19 +3217,19 @@
         <v>1064761</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1012682</v>
+        <v>1003815</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1121969</v>
+        <v>1126390</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2619541948168299</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2491415022271133</v>
+        <v>0.2469601206910434</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2760285375567659</v>
+        <v>0.2771162144889225</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1607804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1569465</v>
+        <v>1570673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1648274</v>
+        <v>1645739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7743286503153712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7558643049323339</v>
+        <v>0.7564458365795602</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7938188494979899</v>
+        <v>0.7925982804599161</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1345</v>
@@ -3267,19 +3267,19 @@
         <v>1392119</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1352680</v>
+        <v>1353021</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1434987</v>
+        <v>1436315</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7001555714747808</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6803200162110551</v>
+        <v>0.680491419812994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7217153565486387</v>
+        <v>0.7223833428211104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2860</v>
@@ -3288,19 +3288,19 @@
         <v>2999924</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2942716</v>
+        <v>2938295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3052003</v>
+        <v>3060870</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7380458051831701</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7239714624432342</v>
+        <v>0.7228837855110775</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7508584977728867</v>
+        <v>0.7530398793089567</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>120705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99237</v>
+        <v>102955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140570</v>
+        <v>143295</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.220713566837617</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1814589177511445</v>
+        <v>0.1882573217371217</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2570377912223006</v>
+        <v>0.26201984017431</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -3413,19 +3413,19 @@
         <v>138623</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>119090</v>
+        <v>118558</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>160897</v>
+        <v>160961</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2524358723742904</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2168665261962775</v>
+        <v>0.2158966883705124</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2929977457268639</v>
+        <v>0.2931150580824773</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>239</v>
@@ -3434,19 +3434,19 @@
         <v>259328</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>228400</v>
+        <v>232817</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>288174</v>
+        <v>290520</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2366073404481482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2083886411775106</v>
+        <v>0.2124190825834875</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2629260560149661</v>
+        <v>0.2650661891674636</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>426181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>406316</v>
+        <v>403591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>447649</v>
+        <v>443931</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.779286433162383</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7429622087777</v>
+        <v>0.7379801598256899</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8185410822488555</v>
+        <v>0.8117426782628783</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>396</v>
@@ -3484,19 +3484,19 @@
         <v>410517</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>388243</v>
+        <v>388179</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>430050</v>
+        <v>430582</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7475641276257096</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.707002254273136</v>
+        <v>0.7068849419175227</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7831334738037224</v>
+        <v>0.7841033116294875</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>788</v>
@@ -3505,19 +3505,19 @@
         <v>836699</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>807853</v>
+        <v>805507</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>867627</v>
+        <v>863210</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7633926595518518</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7370739439850339</v>
+        <v>0.7349338108325364</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7916113588224893</v>
+        <v>0.7875809174165126</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>850351</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>795831</v>
+        <v>799811</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>904184</v>
+        <v>902434</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2517605261070692</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2356189561935475</v>
+        <v>0.2367974173216471</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2676986133240371</v>
+        <v>0.2671804979050757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1069</v>
@@ -3630,19 +3630,19 @@
         <v>1156036</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1104608</v>
+        <v>1098730</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1214120</v>
+        <v>1216342</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.327294145784665</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3127342010960641</v>
+        <v>0.3110700146296852</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.343738730138222</v>
+        <v>0.3443678826533245</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1880</v>
@@ -3651,19 +3651,19 @@
         <v>2006387</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1935995</v>
+        <v>1934739</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2081968</v>
+        <v>2081983</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2903716998161249</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2801843855716029</v>
+        <v>0.2800026627400838</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3013101535984333</v>
+        <v>0.301312233531061</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2527267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2473434</v>
+        <v>2475184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2581787</v>
+        <v>2577807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7482394738929308</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7323013866759631</v>
+        <v>0.7328195020949243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7643810438064527</v>
+        <v>0.7632025826783529</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2257</v>
@@ -3701,19 +3701,19 @@
         <v>2376064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2317980</v>
+        <v>2315758</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2427492</v>
+        <v>2433370</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.672705854215335</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.656261269861778</v>
+        <v>0.6556321173466755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6872657989039359</v>
+        <v>0.6889299853703148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4661</v>
@@ -3722,19 +3722,19 @@
         <v>4903331</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4827750</v>
+        <v>4827735</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4973723</v>
+        <v>4974979</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7096283001838751</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6986898464015667</v>
+        <v>0.6986877664689389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7198156144283971</v>
+        <v>0.7199973372599162</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>147140</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130015</v>
+        <v>128659</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168777</v>
+        <v>169328</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.254628725874084</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2249928328792369</v>
+        <v>0.2226468610433956</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2920723046237193</v>
+        <v>0.2930252102411132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>441</v>
@@ -4086,19 +4086,19 @@
         <v>257315</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>237136</v>
+        <v>238830</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>277012</v>
+        <v>277157</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3135575259110071</v>
+        <v>0.3135575259110072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2889685207543445</v>
+        <v>0.291032196534795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3375606019972786</v>
+        <v>0.3377369766525695</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>628</v>
@@ -4107,19 +4107,19 @@
         <v>404455</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>376858</v>
+        <v>377513</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>432042</v>
+        <v>435659</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2892079423893483</v>
+        <v>0.2892079423893482</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2694744144986657</v>
+        <v>0.2699432265917246</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3089340926807261</v>
+        <v>0.3115207893148167</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>430721</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>409084</v>
+        <v>408533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>447846</v>
+        <v>449202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7453712741259162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7079276953762805</v>
+        <v>0.7069747897588869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.775007167120763</v>
+        <v>0.7773531389566044</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>983</v>
@@ -4157,19 +4157,19 @@
         <v>563315</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>543618</v>
+        <v>543473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>583494</v>
+        <v>581800</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6864424740889929</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6624393980027214</v>
+        <v>0.6622630233474306</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7110314792456554</v>
+        <v>0.7089678034652052</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1486</v>
@@ -4178,19 +4178,19 @@
         <v>994036</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>966449</v>
+        <v>962832</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1021633</v>
+        <v>1020978</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7107920576106518</v>
+        <v>0.7107920576106516</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.691065907319274</v>
+        <v>0.6884792106851834</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7305255855013343</v>
+        <v>0.7300567734082759</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>396232</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>359967</v>
+        <v>355222</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>440650</v>
+        <v>435251</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1777096526736557</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1614447672389674</v>
+        <v>0.1593166224170503</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1976308370155979</v>
+        <v>0.1952095557303517</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>666</v>
@@ -4303,19 +4303,19 @@
         <v>489526</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>454767</v>
+        <v>453740</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>528573</v>
+        <v>525800</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2257779989952257</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2097466616441318</v>
+        <v>0.2092729383469255</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2437872337089503</v>
+        <v>0.242508210533384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1045</v>
@@ -4324,19 +4324,19 @@
         <v>885759</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>829905</v>
+        <v>834618</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>939575</v>
+        <v>944242</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2014078073217363</v>
+        <v>0.2014078073217362</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1887075364482781</v>
+        <v>0.1897792855697837</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2136449565161888</v>
+        <v>0.2147061617913851</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1833429</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1789011</v>
+        <v>1794410</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1869694</v>
+        <v>1874439</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8222903473263443</v>
+        <v>0.8222903473263442</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.802369162984402</v>
+        <v>0.8047904442696483</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8385552327610324</v>
+        <v>0.8406833775829498</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2251</v>
@@ -4374,19 +4374,19 @@
         <v>1678649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1639602</v>
+        <v>1642375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1713408</v>
+        <v>1714435</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7742220010047742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7562127662910501</v>
+        <v>0.7574917894666162</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7902533383558688</v>
+        <v>0.7907270616530747</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3863</v>
@@ -4395,19 +4395,19 @@
         <v>3512077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3458261</v>
+        <v>3453594</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3567931</v>
+        <v>3563218</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7985921926782639</v>
+        <v>0.7985921926782638</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7863550434838114</v>
+        <v>0.7852938382086152</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8112924635517221</v>
+        <v>0.8102207144302163</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>146384</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125107</v>
+        <v>123992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>171867</v>
+        <v>171830</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2057152796594588</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1758143200233448</v>
+        <v>0.1742467289270912</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.241526441689296</v>
+        <v>0.2414742432978584</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>238</v>
@@ -4520,19 +4520,19 @@
         <v>175952</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156391</v>
+        <v>155528</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196943</v>
+        <v>196652</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2394308986463631</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2128123582578066</v>
+        <v>0.2116383483623347</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2679939077434487</v>
+        <v>0.2675983705307829</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>383</v>
@@ -4541,19 +4541,19 @@
         <v>322337</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>292177</v>
+        <v>293358</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>354377</v>
+        <v>353715</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2228445252270342</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2019936708914288</v>
+        <v>0.2028104748870194</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.244995703391383</v>
+        <v>0.2445377119904895</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>565203</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>539720</v>
+        <v>539757</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>586480</v>
+        <v>587595</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7942847203405413</v>
+        <v>0.7942847203405411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7584735583107041</v>
+        <v>0.7585257567021411</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8241856799766555</v>
+        <v>0.8257532710729086</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>766</v>
@@ -4591,19 +4591,19 @@
         <v>558925</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>537934</v>
+        <v>538225</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>578486</v>
+        <v>579349</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7605691013536366</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7320060922565513</v>
+        <v>0.7324016294692174</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7871876417421935</v>
+        <v>0.7883616516376653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1302</v>
@@ -4612,19 +4612,19 @@
         <v>1124127</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1092087</v>
+        <v>1092749</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1154287</v>
+        <v>1153106</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7771554747729658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7550042966086168</v>
+        <v>0.7554622880095107</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7980063291085711</v>
+        <v>0.7971895251129805</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>689757</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>646158</v>
+        <v>640139</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>748043</v>
+        <v>736215</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1960032027843325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1836139513607991</v>
+        <v>0.1819037299164343</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2125658827760643</v>
+        <v>0.209204995453615</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1345</v>
@@ -4737,19 +4737,19 @@
         <v>922793</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>879515</v>
+        <v>876284</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>967401</v>
+        <v>970000</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2478173915256811</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2361949152475937</v>
+        <v>0.2353271849167453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2597967689507094</v>
+        <v>0.2604948442747699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2056</v>
@@ -4758,19 +4758,19 @@
         <v>1612550</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1541232</v>
+        <v>1537451</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1683750</v>
+        <v>1680618</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2226420446582625</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2127953038082331</v>
+        <v>0.2122733186092155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2324724775534526</v>
+        <v>0.2320400820193613</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2829352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2771066</v>
+        <v>2782894</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2872951</v>
+        <v>2878970</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8039967972156674</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7874341172239354</v>
+        <v>0.7907950045463842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8163860486392008</v>
+        <v>0.8180962700835657</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4000</v>
@@ -4808,19 +4808,19 @@
         <v>2800889</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2756281</v>
+        <v>2753682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2844167</v>
+        <v>2847398</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7521826084743188</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7402032310492904</v>
+        <v>0.7395051557252301</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7638050847524063</v>
+        <v>0.7646728150832548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6651</v>
@@ -4829,19 +4829,19 @@
         <v>5630241</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5559041</v>
+        <v>5562173</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5701559</v>
+        <v>5705340</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7773579553417375</v>
+        <v>0.7773579553417377</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7675275224465474</v>
+        <v>0.7679599179806388</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7872046961917669</v>
+        <v>0.7877266813907844</v>
       </c>
     </row>
     <row r="15">
